--- a/biology/Zoologie/Eulipotyphla/Eulipotyphla.xlsx
+++ b/biology/Zoologie/Eulipotyphla/Eulipotyphla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eulipotyphla, Eulipotyphles en français, sont un ordre de mammifères suggéré par des méthodes moléculaires de reconstruction phylogénétique, et comprend les membres laurasiathériens de l'ordre désormais polyphylétique et invalide des Lipotyphla, mais pas les membres afrotherien (tenrecs, taupes dorées et musaraignes, maintenant dans leur propre ordre Afrosoricida). L'ordre Lipotyphla lui-même a été formé en supprimant certains groupes de l'ordre des Insectivores, le taxon poubelle précédemment utilisé, notamment les Dermoptera, Scandentia et Macroscelidea.
-Les desmans et les taupes, de la famille des Talpidae, les musaraignes de la famille des Soricidae, et les hérissons de la famille des Erinaceidae (anciennement de l'ordre des Erinaceomorpha) font partie de ce groupe. Les Talpidae, les Soricidae et les solénodons étaient à leur tour réunies dans l'ordre des Soricomorpha, qui s'est avéré par la suite paraphylétique puisque les Erinaceidae sont le groupe frère des musaraignes, et ils sont plus étroitement liés au clade des Scrotifera, avec qui ils forment Laurasiatheria[1],[2],[3].
+Les desmans et les taupes, de la famille des Talpidae, les musaraignes de la famille des Soricidae, et les hérissons de la famille des Erinaceidae (anciennement de l'ordre des Erinaceomorpha) font partie de ce groupe. Les Talpidae, les Soricidae et les solénodons étaient à leur tour réunies dans l'ordre des Soricomorpha, qui s'est avéré par la suite paraphylétique puisque les Erinaceidae sont le groupe frère des musaraignes, et ils sont plus étroitement liés au clade des Scrotifera, avec qui ils forment Laurasiatheria.
 </t>
         </is>
       </c>
@@ -514,14 +526,89 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Histoire
-Les Eulipotyphla rassemble la grande majorité des espèces qui étaient classées dans l'ordre historique des Insectivores.
-Phylogénie
-Cladogramme au niveau familial des relations modernes des eulipotyphles, d'après Roca et al. and Brace et al.[2],[4] :
-Les sous-clades basales supérieure et inférieure de l'arbre sont respectivement les sous-ordres Solenodonta et Erinaceota[4]. On estime que ces deux branches se sont séparées il y a environ 72 à 74 millions d'années[4],[5],[6]. Les Nesophontidae et les Solenodontidae se seraient séparés il y a environ 57 Ma[4]. Les temps intermédiaires pour les talpidés vs soricidés plus erinaceidés, et pour soricidés vs. erinaceidés, ont été respectivement estimés à environ 69 Ma et 64 Ma[7]. 
-Phylogénie des ordres actuels de laurasiathériens, d'après Zhou et al., 2011[8] :
-Liste des familles, sous-familles, tribus et genres
-Selon la Mammal Diversity Database  (15 janvier 2024)[9] :
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Eulipotyphla rassemble la grande majorité des espèces qui étaient classées dans l'ordre historique des Insectivores.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eulipotyphla</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eulipotyphla</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladogramme au niveau familial des relations modernes des eulipotyphles, d'après Roca et al. and Brace et al., :
+Les sous-clades basales supérieure et inférieure de l'arbre sont respectivement les sous-ordres Solenodonta et Erinaceota. On estime que ces deux branches se sont séparées il y a environ 72 à 74 millions d'années. Les Nesophontidae et les Solenodontidae se seraient séparés il y a environ 57 Ma. Les temps intermédiaires pour les talpidés vs soricidés plus erinaceidés, et pour soricidés vs. erinaceidés, ont été respectivement estimés à environ 69 Ma et 64 Ma. 
+Phylogénie des ordres actuels de laurasiathériens, d'après Zhou et al., 2011 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eulipotyphla</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eulipotyphla</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des familles, sous-familles, tribus et genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la Mammal Diversity Database  (15 janvier 2024) :
 Ordre Eulipotyphla (= 'Lipotyphla' - Afrosoricida = 'Erinaceomorpha' + 'Soricomorpha')
 sous-ordre des Erinaceota
 famille des Erinaceidae
@@ -612,7 +699,7 @@
 famille des Solenodontidae
 Atopogale
 Solenodon
-Familles actuelles et fossiles, et genres non-classés selon The Hesperomys Project       (15 janvier 2024)[10] :
+Familles actuelles et fossiles, et genres non-classés selon The Hesperomys Project       (15 janvier 2024) :
 †Anomodon LeConte, 1848 (nomen dubium)
 sous-ordre des Erinaceota Van Valen, 1967
 super-famille des Erinaceoidea Fischer, 1814
